--- a/stat/sprav_fields.xlsx
+++ b/stat/sprav_fields.xlsx
@@ -16,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pat_cols!$A$1:$A$68</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">pat_ids!$A$1:$B$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ther_cols!$A$1:$A$70</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Лист1!$A$1:$C$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Лист1!$A$1:$D$64</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -1753,15 +1753,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1778,133 +1780,103 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" hidden="1">
       <c r="A2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="10" spans="1:4" hidden="1">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>51</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" hidden="1">
       <c r="A11">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1">
       <c r="A12">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1912,10 +1884,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>128</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1923,10 +1898,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1934,10 +1909,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1945,10 +1920,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1956,32 +1931,29 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" hidden="1">
       <c r="A19">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1989,10 +1961,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2000,10 +1972,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2011,10 +1983,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2022,10 +1994,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2033,10 +2005,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2044,10 +2016,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2055,10 +2027,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2066,10 +2038,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2077,10 +2049,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2088,32 +2063,29 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" hidden="1">
       <c r="A31">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2121,10 +2093,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2132,32 +2107,29 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" hidden="1">
       <c r="A35">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2165,10 +2137,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2176,32 +2151,29 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" hidden="1">
       <c r="A39">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -2209,32 +2181,32 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" hidden="1">
       <c r="A42">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -2242,10 +2214,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -2253,10 +2225,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -2264,10 +2239,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -2275,10 +2250,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -2286,10 +2261,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -2297,32 +2275,29 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" hidden="1">
       <c r="A50">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -2330,10 +2305,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -2341,32 +2319,29 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" hidden="1">
       <c r="A54">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2374,10 +2349,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -2385,32 +2363,32 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" hidden="1">
       <c r="A58">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -2449,15 +2427,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" hidden="1">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>63</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2472,10 +2447,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C64">
-    <sortState ref="A2:C64">
-      <sortCondition descending="1" ref="C1:C64"/>
-    </sortState>
+  <autoFilter ref="A1:D64">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/stat/sprav_fields.xlsx
+++ b/stat/sprav_fields.xlsx
@@ -4,26 +4,31 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="pat_cols" sheetId="1" r:id="rId1"/>
     <sheet name="pat_ids" sheetId="2" r:id="rId2"/>
     <sheet name="ther_cols" sheetId="3" r:id="rId3"/>
     <sheet name="Лист1" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист2" sheetId="5" r:id="rId5"/>
+    <sheet name="нейротоксич" sheetId="6" r:id="rId6"/>
+    <sheet name="кож_ток" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pat_cols!$A$1:$A$68</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">pat_ids!$A$1:$B$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ther_cols!$A$1:$A$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ther_cols!$A$1:$D$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">кож_ток!$A$1:$E$117</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Лист1!$A$1:$D$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">нейротоксич!$A$1:$E$117</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="177">
   <si>
     <t>patient_number</t>
   </si>
@@ -413,13 +418,154 @@
   </si>
   <si>
     <t>count_for_freq</t>
+  </si>
+  <si>
+    <t>freq</t>
+  </si>
+  <si>
+    <t>номер пациента</t>
+  </si>
+  <si>
+    <t>визит</t>
+  </si>
+  <si>
+    <t>Нейротоксичность</t>
+  </si>
+  <si>
+    <t>уровень токсичности</t>
+  </si>
+  <si>
+    <t>aktolkynmamadiyarova@mail.ru</t>
+  </si>
+  <si>
+    <t>makaroff_valeriy@mail.ru</t>
+  </si>
+  <si>
+    <t>nurbolelemesov@mail.ru</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>1-8</t>
+  </si>
+  <si>
+    <t>1-9</t>
+  </si>
+  <si>
+    <t>1-10</t>
+  </si>
+  <si>
+    <t>1-11</t>
+  </si>
+  <si>
+    <t>1-12</t>
+  </si>
+  <si>
+    <t>1-13</t>
+  </si>
+  <si>
+    <t>1-14</t>
+  </si>
+  <si>
+    <t>1-15</t>
+  </si>
+  <si>
+    <t>1-16</t>
+  </si>
+  <si>
+    <t>1-17</t>
+  </si>
+  <si>
+    <t>1-18</t>
+  </si>
+  <si>
+    <t>1-19</t>
+  </si>
+  <si>
+    <t>1-20</t>
+  </si>
+  <si>
+    <t>1-21</t>
+  </si>
+  <si>
+    <t>1-22</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>2-8</t>
+  </si>
+  <si>
+    <t>2-9</t>
+  </si>
+  <si>
+    <t>2-10</t>
+  </si>
+  <si>
+    <t>2-11</t>
+  </si>
+  <si>
+    <t>2-12</t>
+  </si>
+  <si>
+    <t>2-13</t>
+  </si>
+  <si>
+    <t>2-14</t>
+  </si>
+  <si>
+    <t>Кожная токсичность</t>
+  </si>
+  <si>
+    <t>нет</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +573,14 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -437,7 +591,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -445,14 +599,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1377,375 +1565,769 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:A70"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A68"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" hidden="1">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" hidden="1">
-      <c r="A19" t="s">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:1" hidden="1">
-      <c r="A20" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:1" hidden="1">
-      <c r="A21" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" hidden="1">
-      <c r="A23" t="s">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" hidden="1">
-      <c r="A25" t="s">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" hidden="1">
-      <c r="A27" t="s">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" hidden="1">
-      <c r="A29" t="s">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" hidden="1">
-      <c r="A31" t="s">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" hidden="1">
-      <c r="A33" t="s">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" hidden="1">
-      <c r="A40" t="s">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" hidden="1">
-      <c r="A42" t="s">
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:1" hidden="1">
-      <c r="A43" t="s">
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:1" hidden="1">
-      <c r="A44" t="s">
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:1" hidden="1">
-      <c r="A45" t="s">
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:1" hidden="1">
-      <c r="A46" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:1" hidden="1">
-      <c r="A47" t="s">
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:1" hidden="1">
-      <c r="A48" t="s">
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:1" hidden="1">
-      <c r="A49" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:1" hidden="1">
-      <c r="A50" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:1" hidden="1">
-      <c r="A51" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:1" hidden="1">
-      <c r="A52" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:1" hidden="1">
-      <c r="A53" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:1" hidden="1">
-      <c r="A54" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:1" hidden="1">
-      <c r="A55" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:1" hidden="1">
-      <c r="A56" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:1" hidden="1">
-      <c r="A57" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:1" hidden="1">
-      <c r="A58" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:1" hidden="1">
-      <c r="A59" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:1" hidden="1">
-      <c r="A60" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:1" hidden="1">
-      <c r="A61" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:1" hidden="1">
-      <c r="A62" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:1" hidden="1">
-      <c r="A63" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:1" hidden="1">
-      <c r="A64" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" hidden="1">
-      <c r="A69" t="s">
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:1" hidden="1">
-      <c r="A70" t="s">
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A70">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter val="*_id"/>
-      </customFilters>
-    </filterColumn>
+  <autoFilter ref="A1:D70">
+    <filterColumn colId="2"/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1756,8 +2338,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B64"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2457,4 +3039,4391 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:B70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E117"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="4">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="4">
+        <v>2</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="4">
+        <v>3</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="4">
+        <v>4</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="4">
+        <v>5</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="4">
+        <v>6</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="4">
+        <v>2</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" s="4">
+        <v>3</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" s="4">
+        <v>4</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" s="4">
+        <v>5</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" s="4">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" s="4">
+        <v>7</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" s="4">
+        <v>8</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="4">
+        <v>9</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="4">
+        <v>10</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" s="4">
+        <v>2</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44" s="4">
+        <v>3</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="4">
+        <v>4</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" s="4">
+        <v>5</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" s="4">
+        <v>6</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B48" s="4">
+        <v>7</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="4">
+        <v>8</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B50" s="4">
+        <v>9</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="4">
+        <v>10</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" s="4">
+        <v>1</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" s="4">
+        <v>2</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" s="4">
+        <v>3</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" s="4">
+        <v>1</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" s="4">
+        <v>2</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" s="4">
+        <v>3</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B58" s="4">
+        <v>4</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B59" s="4">
+        <v>5</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" s="4">
+        <v>6</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="4">
+        <v>1</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B61" s="4">
+        <v>7</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B62" s="4">
+        <v>8</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B63" s="4">
+        <v>9</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B64" s="4">
+        <v>1</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="4">
+        <v>2</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B66" s="4">
+        <v>3</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D66" s="4">
+        <v>1</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" s="4">
+        <v>4</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" s="4">
+        <v>2</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B70" s="4">
+        <v>3</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B71" s="4">
+        <v>4</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D71" s="4">
+        <v>1</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B72" s="4">
+        <v>5</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" s="4">
+        <v>6</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B74" s="4">
+        <v>7</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B75" s="4">
+        <v>8</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B76" s="4">
+        <v>1</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77" s="4">
+        <v>2</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B78" s="4">
+        <v>3</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79" s="4">
+        <v>4</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B80" s="4">
+        <v>5</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D80" s="4">
+        <v>1</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" s="4">
+        <v>6</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="4">
+        <v>1</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83" s="4">
+        <v>2</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" s="4">
+        <v>3</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85" s="4">
+        <v>4</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" s="4">
+        <v>5</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" s="4">
+        <v>6</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D87" s="4">
+        <v>1</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B88" s="4">
+        <v>7</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B89" s="4">
+        <v>1</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B90" s="4">
+        <v>2</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B91" s="4">
+        <v>3</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B92" s="4">
+        <v>4</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B93" s="4">
+        <v>5</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D93" s="4">
+        <v>1</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B94" s="4">
+        <v>6</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D94" s="4">
+        <v>1</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B95" s="4">
+        <v>7</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D95" s="4">
+        <v>1</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B96" s="4">
+        <v>1</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D96" s="4">
+        <v>1</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B97" s="4">
+        <v>2</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D97" s="4">
+        <v>1</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B98" s="4">
+        <v>3</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D98" s="4">
+        <v>1</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B99" s="4">
+        <v>4</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D99" s="4">
+        <v>1</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B100" s="4">
+        <v>5</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D100" s="4">
+        <v>1</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B101" s="4">
+        <v>6</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D101" s="4">
+        <v>1</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B102" s="4">
+        <v>7</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D102" s="4">
+        <v>1</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B103" s="4">
+        <v>1</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D103" s="4">
+        <v>1</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B104" s="4">
+        <v>2</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D104" s="4">
+        <v>1</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B105" s="4">
+        <v>3</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D105" s="4">
+        <v>1</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B106" s="4">
+        <v>4</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D106" s="4">
+        <v>1</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B107" s="4">
+        <v>5</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D107" s="4">
+        <v>1</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B108" s="4">
+        <v>6</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D108" s="4">
+        <v>1</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B109" s="4">
+        <v>1</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D109" s="4">
+        <v>1</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B110" s="4">
+        <v>2</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D110" s="4">
+        <v>1</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B111" s="4">
+        <v>1</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D111" s="4">
+        <v>1</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B112" s="4">
+        <v>2</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D112" s="4">
+        <v>1</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B113" s="4">
+        <v>3</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D113" s="4">
+        <v>1</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B114" s="4">
+        <v>4</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D114" s="4">
+        <v>1</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B115" s="4">
+        <v>5</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D115" s="4">
+        <v>1</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B116" s="4">
+        <v>6</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D116" s="4">
+        <v>1</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B117" s="4">
+        <v>7</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D117" s="4">
+        <v>1</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E117"/>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E27" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E117"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="1">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="1">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" s="1">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" s="1">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" s="1">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" s="1">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="1">
+        <v>9</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="1">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44" s="1">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="1">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" s="1">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" s="1">
+        <v>6</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B48" s="1">
+        <v>7</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="1">
+        <v>8</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B50" s="1">
+        <v>9</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="1">
+        <v>10</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" s="1">
+        <v>3</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" s="1">
+        <v>3</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B58" s="1">
+        <v>4</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B59" s="1">
+        <v>5</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" s="1">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B61" s="1">
+        <v>7</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B62" s="1">
+        <v>8</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B63" s="1">
+        <v>9</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B66" s="1">
+        <v>3</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" s="1">
+        <v>4</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B70" s="1">
+        <v>3</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B71" s="1">
+        <v>4</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B72" s="1">
+        <v>5</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" s="1">
+        <v>6</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B74" s="1">
+        <v>7</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B75" s="1">
+        <v>8</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B78" s="1">
+        <v>3</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79" s="1">
+        <v>4</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B80" s="1">
+        <v>5</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" s="1">
+        <v>6</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83" s="1">
+        <v>2</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" s="1">
+        <v>3</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85" s="1">
+        <v>4</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" s="1">
+        <v>5</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" s="1">
+        <v>6</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B88" s="1">
+        <v>7</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B89" s="1">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B90" s="1">
+        <v>2</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B91" s="1">
+        <v>3</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D91" s="1">
+        <v>1</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B92" s="1">
+        <v>4</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B93" s="1">
+        <v>5</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B94" s="1">
+        <v>6</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B95" s="1">
+        <v>7</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B97" s="1">
+        <v>2</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D97" s="1">
+        <v>1</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B98" s="1">
+        <v>3</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B99" s="1">
+        <v>4</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B100" s="1">
+        <v>5</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D100" s="1">
+        <v>1</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B101" s="1">
+        <v>6</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D101" s="1">
+        <v>1</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B102" s="1">
+        <v>7</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D102" s="1">
+        <v>1</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B103" s="1">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D103" s="1">
+        <v>1</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B104" s="1">
+        <v>2</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D104" s="1">
+        <v>1</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B105" s="1">
+        <v>3</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D105" s="1">
+        <v>1</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B106" s="1">
+        <v>4</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D106" s="1">
+        <v>1</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B107" s="1">
+        <v>5</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B108" s="1">
+        <v>6</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D108" s="1">
+        <v>1</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B109" s="1">
+        <v>1</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D109" s="1">
+        <v>1</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B110" s="1">
+        <v>2</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D110" s="1">
+        <v>1</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B111" s="1">
+        <v>1</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D111" s="1">
+        <v>1</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B112" s="1">
+        <v>2</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D112" s="1">
+        <v>1</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B113" s="1">
+        <v>3</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D113" s="1">
+        <v>1</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B114" s="1">
+        <v>4</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D114" s="1">
+        <v>1</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B115" s="1">
+        <v>5</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D115" s="1">
+        <v>1</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B116" s="1">
+        <v>6</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D116" s="1">
+        <v>1</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B117" s="1">
+        <v>7</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D117" s="1">
+        <v>1</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E117"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>